--- a/data/trans_bre/IP21-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP21-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-12,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-8,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>71,33%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>64,64%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-43,28%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,31</t>
+          <t>-29,01; -3,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,52</t>
+          <t>-25,09; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,56</t>
+          <t>-19,83; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 137,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 300,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 326,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 242,12</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-65,54%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-18,18%</t>
+          <t>71,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>64,64%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-82,66%</t>
+          <t>-43,28%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; -0,47</t>
+          <t>-2,32; 4,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 2,5</t>
+          <t>-0,68; 5,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,69</t>
+          <t>-0,77; 4,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; -0,38</t>
+          <t>-2,89; 1,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-90,51; -2,79</t>
+          <t>-40,34; 137,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-64,63; 90,0</t>
+          <t>-22,86; 300,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-67,06; 263,54</t>
+          <t>-26,7; 326,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 111,99</t>
+          <t>-100,0; 242,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,86</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,47</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-36,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -968,32 +968,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,01; -3,32</t>
+          <t>-4,01; 3,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 0,0</t>
+          <t>-6,32; 1,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 0,0</t>
+          <t>-2,19; 2,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 5,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,29; 133,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,91; 43,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>-65,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-36,25%</t>
+          <t>-18,18%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-82,66%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 3,71</t>
+          <t>-6,51; -0,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 1,44</t>
+          <t>-4,44; 2,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,48</t>
+          <t>-2,31; 2,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,44</t>
+          <t>-4,46; -0,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-61,29; 133,15</t>
+          <t>-90,51; -2,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-77,91; 43,58</t>
+          <t>-64,63; 90,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,06; 263,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 111,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP21-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP21-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,01; -3,32</t>
+          <t>-28,68; -3,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,09; 0,0</t>
+          <t>-27,55; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 0,0</t>
+          <t>-19,54; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 5,32</t>
+          <t>-1,07; 5,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,62</t>
+          <t>-3,86; 3,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 3,02</t>
+          <t>-5,21; 3,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 2,51</t>
+          <t>-3,63; 2,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,45; 934,82</t>
+          <t>-67,98; 1249,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,38; 209,08</t>
+          <t>-75,47; 224,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-77,81; 134,89</t>
+          <t>-78,94; 150,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-86,9; 335,7</t>
+          <t>-89,88; 277,47</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 4,31</t>
+          <t>-2,28; 4,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,52</t>
+          <t>-0,62; 5,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 4,56</t>
+          <t>-0,84; 4,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 1,0</t>
+          <t>-2,93; 1,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 137,66</t>
+          <t>-38,33; 152,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 300,53</t>
+          <t>-21,73; 335,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-26,7; 326,58</t>
+          <t>-24,27; 362,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 242,12</t>
+          <t>-100,0; 264,02</t>
         </is>
       </c>
     </row>
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 3,71</t>
+          <t>-4,12; 4,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 1,44</t>
+          <t>-6,4; 1,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 2,48</t>
+          <t>-2,4; 2,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,44</t>
+          <t>1,11; 5,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,29; 133,15</t>
+          <t>-59,04; 149,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,91; 43,58</t>
+          <t>-78,23; 34,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,35; 465,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,51; -0,47</t>
+          <t>-6,53; -0,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 2,5</t>
+          <t>-4,35; 2,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,69</t>
+          <t>-2,61; 2,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; -0,38</t>
+          <t>-4,44; -0,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-90,51; -2,79</t>
+          <t>-90,38; 1,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-64,63; 90,0</t>
+          <t>-64,21; 105,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-67,06; 263,54</t>
+          <t>-66,27; 225,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 111,99</t>
+          <t>-100,0; 92,05</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 0,96</t>
+          <t>-2,53; 0,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,27</t>
+          <t>-2,22; 1,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,72</t>
+          <t>-1,14; 1,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,85</t>
+          <t>-1,35; 0,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,93; 26,77</t>
+          <t>-47,31; 19,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 34,49</t>
+          <t>-42,01; 35,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 81,72</t>
+          <t>-33,77; 88,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,67; 84,17</t>
+          <t>-61,12; 73,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP21-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP21-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-28,68; -3,26</t>
+          <t>-29,39; -3,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,55; 0,0</t>
+          <t>-24,49; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 0,0</t>
+          <t>-19,87; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 5,34</t>
+          <t>-1,06; 5,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,85</t>
+          <t>-3,96; 3,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 3,05</t>
+          <t>-5,55; 3,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 2,22</t>
+          <t>-3,32; 2,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,98; 1249,99</t>
+          <t>-63,27; 1140,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,47; 224,78</t>
+          <t>-72,13; 237,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-78,94; 150,34</t>
+          <t>-81,42; 128,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-89,88; 277,47</t>
+          <t>-84,7; 243,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 4,55</t>
+          <t>-2,29; 4,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,43</t>
+          <t>-0,61; 5,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,6</t>
+          <t>-1,1; 4,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,18</t>
+          <t>-3,08; 0,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,33; 152,1</t>
+          <t>-38,29; 133,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 335,04</t>
+          <t>-20,69; 310,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 362,41</t>
+          <t>-32,25; 303,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 264,02</t>
+          <t>-100,0; 168,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,37 +968,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 4,03</t>
+          <t>-3,98; 3,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 1,41</t>
+          <t>-5,83; 1,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,64</t>
+          <t>-2,25; 2,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,83</t>
+          <t>1,22; 5,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,04; 149,47</t>
+          <t>-59,89; 122,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,23; 34,57</t>
+          <t>-74,3; 43,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-84,35; 465,9</t>
+          <t>-81,1; 486,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,53; -0,42</t>
+          <t>-6,5; -0,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 2,57</t>
+          <t>-4,41; 2,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 2,7</t>
+          <t>-2,4; 2,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; -0,29</t>
+          <t>-4,66; -0,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-90,38; 1,21</t>
+          <t>-89,33; 0,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-64,21; 105,88</t>
+          <t>-65,46; 103,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 225,33</t>
+          <t>-67,95; 238,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 92,05</t>
+          <t>-100,0; 177,93</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,72</t>
+          <t>-2,59; 0,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,26</t>
+          <t>-2,03; 1,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,79</t>
+          <t>-1,31; 1,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 0,79</t>
+          <t>-1,39; 0,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-47,31; 19,18</t>
+          <t>-47,48; 25,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,01; 35,33</t>
+          <t>-38,66; 38,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,77; 88,79</t>
+          <t>-37,2; 85,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-61,12; 73,6</t>
+          <t>-60,8; 94,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP21-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP21-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-12,86</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,47</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-19,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-34,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-35,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,59%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-29,39; -3,27</t>
+          <t>-4,09; 2,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,49; 0,0</t>
+          <t>-5,32; 2,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 0,0</t>
+          <t>-5,45; 1,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 1,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,59; 181,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,22; 106,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,13; 78,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,41; 242,86</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>112,87%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>71,33%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-23,67%</t>
+          <t>64,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-22,76%</t>
+          <t>-45,42%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 5,37</t>
+          <t>-2,32; 4,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 3,73</t>
+          <t>-0,68; 5,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 3,01</t>
+          <t>-0,77; 4,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 2,12</t>
+          <t>-3,05; 0,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-63,27; 1140,18</t>
+          <t>-40,34; 137,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,13; 237,78</t>
+          <t>-22,86; 300,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-81,42; 128,08</t>
+          <t>-26,7; 326,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-84,7; 243,95</t>
+          <t>-100,0; 240,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>-1,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>71,33%</t>
+          <t>-36,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>64,64%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-43,28%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,48</t>
+          <t>-4,01; 3,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,29</t>
+          <t>-6,32; 1,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,58</t>
+          <t>-2,19; 2,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,87</t>
+          <t>0,88; 4,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 133,48</t>
+          <t>-61,29; 133,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 310,13</t>
+          <t>-77,91; 43,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 303,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 168,91</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>-65,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,25%</t>
+          <t>-18,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-82,52%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,75</t>
+          <t>-6,51; -0,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 1,33</t>
+          <t>-4,44; 2,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,54</t>
+          <t>-2,31; 2,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,3</t>
+          <t>-4,54; -0,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,89; 122,17</t>
+          <t>-90,51; -2,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,3; 43,53</t>
+          <t>-64,63; 90,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-81,1; 486,53</t>
+          <t>-67,06; 263,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 113,32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-65,54%</t>
+          <t>-18,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-18,18%</t>
+          <t>-8,92%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-82,66%</t>
+          <t>-15,26%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,5; -0,51</t>
+          <t>-2,4; 0,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 2,58</t>
+          <t>-2,1; 1,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,76</t>
+          <t>-1,09; 1,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,66; -0,32</t>
+          <t>-1,33; 0,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-89,33; 0,97</t>
+          <t>-44,93; 26,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-65,46; 103,89</t>
+          <t>-40,92; 34,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-67,95; 238,57</t>
+          <t>-31,15; 81,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 177,93</t>
+          <t>-60,53; 80,43</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,86</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-18,66%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-8,92%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,65%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-13,21%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-2,59; 0,89</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 1,34</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 1,71</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,39; 0,83</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-47,48; 25,53</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-38,66; 38,39</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-37,2; 85,67</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-60,8; 94,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
